--- a/loaded_influencer_data/huyenvytochigi/huyenvytochigi_video.xlsx
+++ b/loaded_influencer_data/huyenvytochigi/huyenvytochigi_video.xlsx
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7270106061401640194</t>
         </is>
@@ -515,10 +515,10 @@
         <v>1100000</v>
       </c>
       <c r="C2" t="n">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="D2" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,21 +528,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Xài là mê đó mí bàaaaaa ✨✨
-#vytochigi #fyp #reviewlamdep #goclamdep #beautyhacks</t>
+          <t>그것이 내가 사랑하는 것입니다. ✨✨ #vytochigi #fyp #reviewlamdep #goclamdep #beautyhacks</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.795636363636364</v>
+        <v>4.805090909090909</v>
       </c>
       <c r="I2" t="n">
-        <v>4.763636363636364</v>
+        <v>4.772727272727273</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.032</v>
+        <v>0.03236363636363636</v>
       </c>
       <c r="L2" t="n">
         <v>1.281818181818182</v>
@@ -559,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7204018866760994050</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553900</v>
+        <v>554000</v>
       </c>
       <c r="C3" t="n">
         <v>20600</v>
@@ -577,28 +576,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Xài là mê đó nhaaa mí bà ✨💯
-#fyp #foryourpage #reviewlamdep #goclamdep #beautytips #beautytok</t>
+          <t>그것을 사용하는 것은 기쁨입니다. ✨💯 #fyp #foryourpage #reviewlamdep #goclamdep #beautytips #beautytok</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.75428777757718</v>
+        <v>3.753610108303249</v>
       </c>
       <c r="I3" t="n">
-        <v>3.719082866943492</v>
+        <v>3.71841155234657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03520491063368839</v>
+        <v>0.0351985559566787</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7909369922368659</v>
+        <v>0.7906137184115524</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7144639285944274178</t>
         </is>
@@ -634,7 +632,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Đẹp tự nhiên nhưng ko tự nhiên mà đẹp đâu nè mí bà ✨ #fyp #foryou #reviewlamdep #beautytips #beautyhacks</t>
+          <t>Đẹp tự nhiên nhưng ko tự nhiên mà đẹp đâu nè mí bà ✨ #fyp #foryou #reviewlamdep #beautytips #beautyhacks #beautyreview #routineskincare</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -664,16 +662,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7453838019741715728</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2587</v>
+        <v>2658</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -686,24 +684,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024 recap 🎞️🤎✨
-#vytochigi #tochigistore #beautyhacks #beautyreview #beautytok #musthave #goclamdep #recap</t>
+          <t>2024 요약 🎞️🤎✨ #vytochigi #tochigistore #beautyhacks #beautyreview #beautytok #musthave #goclamdep</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.241979126401237</v>
+        <v>2.219714070729872</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0873598763046</v>
+        <v>2.069224981188864</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.154619250096637</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1932740626207963</v>
+        <v>0.1881113619262604</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -715,13 +712,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7450121850102779153</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="C6" t="n">
         <v>456</v>
@@ -737,23 +734,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Set quà chấn động thiệt đó mí bà ơiiii ✨✨ #vytochigi #tochigistore #beautyhacks #beautyreview</t>
+          <t>진짜 충격적인 선물 세트 ✨✨#vytochigi #tochigistore #beautyhacks #beautyreview #beautytok #musthave</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.771626297577855</v>
+        <v>1.76551724137931</v>
       </c>
       <c r="I6" t="n">
-        <v>1.577854671280277</v>
+        <v>1.572413793103448</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1937716262975779</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1280276816608996</v>
+        <v>0.1275862068965517</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -765,45 +762,45 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7449391276883021057</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2940</v>
+        <v>3053</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ê da dầu mụn xài bị ghiền á mí bàaaaa ✨✨ #vytochigi #tochigistore #beautyhacks #beautyreview</t>
+          <t>Eh 피부 여드름 기름은 내 눈꺼풀에 중독되어 있었다 aaaaa ✨✨#vytochigi #tochigistore #beautyhacks #beautyreview</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.551020408163265</v>
+        <v>2.456600065509335</v>
       </c>
       <c r="I7" t="n">
-        <v>2.414965986394558</v>
+        <v>2.358336062888962</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1360544217687075</v>
+        <v>0.09826400262037339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.4258106780216181</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -815,7 +812,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7446813646014991633</t>
         </is>
@@ -824,7 +821,7 @@
         <v>14200</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -833,19 +830,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mua ko biết bao nhiu chai lun oy á chòiiii ✨✨
-#vytochigi #tochigistore #beautyhacks #beautyreview</t>
+          <t>Eh 피부 여드름 기름은 내 눈꺼풀에 중독되어 있었다 aaaaa ✨✨#vytochigi #tochigistore #beautyhacks #beautyreview</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.338028169014085</v>
+        <v>1.345070422535211</v>
       </c>
       <c r="I8" t="n">
-        <v>1.274647887323944</v>
+        <v>1.28169014084507</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -854,7 +850,7 @@
         <v>0.06338028169014084</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1690140845070423</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -866,7 +862,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7441619939082964245</t>
         </is>
@@ -875,7 +871,7 @@
         <v>58400</v>
       </c>
       <c r="C9" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D9" t="n">
         <v>84</v>
@@ -888,15 +884,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nó hàn quoắc mà nó nhật bổn lắm luônnnn ✨✨
-#vytochigi #tochigistore #beautyhacks #beautyreview</t>
+          <t>너무 귀엽다, 너무 귀엽다. ✨✨ #vytochigi #tochigistore #beautyhacks #beautyreview #beautytok #musthave</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.941780821917808</v>
+        <v>1.943493150684932</v>
       </c>
       <c r="I9" t="n">
-        <v>1.797945205479452</v>
+        <v>1.799657534246575</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -917,16 +912,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7441223145006075156</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169400</v>
+        <v>169600</v>
       </c>
       <c r="C10" t="n">
-        <v>7652</v>
+        <v>7651</v>
       </c>
       <c r="D10" t="n">
         <v>102</v>
@@ -935,28 +930,27 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hàng Nhật mãi đỉnkkkk ✨✨
-#vytochigi #tochigistore #beautyhacks #beautyreview #beautytok</t>
+          <t>너무 귀엽다, 너무 귀엽다. ✨✨ #vytochigi #tochigistore #beautyhacks #beautyreview #beautytok #musthave</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.577331759149941</v>
+        <v>4.571344339622641</v>
       </c>
       <c r="I10" t="n">
-        <v>4.517119244391972</v>
+        <v>4.51120283018868</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06021251475796931</v>
+        <v>0.06014150943396226</v>
       </c>
       <c r="L10" t="n">
-        <v>1.481700118063755</v>
+        <v>1.475235849056604</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -968,7 +962,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7439015288428940545</t>
         </is>
@@ -1018,7 +1012,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7438980327944621313</t>
         </is>
@@ -1069,7 +1063,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/photo/7437520546503462164</t>
         </is>
@@ -1119,7 +1113,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7437519747673050389</t>
         </is>
@@ -1169,7 +1163,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7436027899100056848</t>
         </is>
@@ -1219,7 +1213,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7435247132153580801</t>
         </is>
@@ -1269,7 +1263,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7433408258246823169</t>
         </is>
@@ -1319,7 +1313,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7431939271642058001</t>
         </is>
@@ -1369,7 +1363,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7430456017663675664</t>
         </is>
@@ -1420,7 +1414,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/photo/7430048114611981569</t>
         </is>
@@ -1471,7 +1465,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7427853309643345168</t>
         </is>
@@ -1522,7 +1516,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7425953060754607376</t>
         </is>
@@ -1572,7 +1566,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7425614869501725969</t>
         </is>
@@ -1623,7 +1617,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7417869330228022529</t>
         </is>
@@ -1674,7 +1668,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7415604337449225473</t>
         </is>
@@ -1725,7 +1719,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7411903687179685121</t>
         </is>
@@ -1775,7 +1769,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7406336845266701569</t>
         </is>
@@ -1825,7 +1819,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7382222701496192272</t>
         </is>
@@ -1876,7 +1870,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7380711187899567377</t>
         </is>
@@ -1927,7 +1921,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7378865162721201425</t>
         </is>
@@ -1978,7 +1972,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7366190276412574992</t>
         </is>
@@ -2029,7 +2023,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7362822376620412161</t>
         </is>
@@ -2080,7 +2074,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7353644501388365073</t>
         </is>
@@ -2131,7 +2125,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7353174289094282513</t>
         </is>
@@ -2182,7 +2176,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7349830074897632514</t>
         </is>
@@ -2232,7 +2226,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7348750485517552898</t>
         </is>
@@ -2283,7 +2277,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7347230816294030593</t>
         </is>
@@ -2333,7 +2327,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7346930035183406338</t>
         </is>
@@ -2383,7 +2377,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7343960256965299458</t>
         </is>
@@ -2434,7 +2428,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7341714742542699777</t>
         </is>
@@ -2484,7 +2478,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7340284764202503426</t>
         </is>
@@ -2535,7 +2529,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7321671783201950977</t>
         </is>
@@ -2586,7 +2580,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7320957664014388481</t>
         </is>
@@ -2637,7 +2631,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7318340252572192001</t>
         </is>
@@ -2688,7 +2682,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7317961045866269953</t>
         </is>
@@ -2739,7 +2733,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7316852804964994306</t>
         </is>
@@ -2790,7 +2784,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/photo/7314647398221974786</t>
         </is>
@@ -2840,7 +2834,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7311334184943881473</t>
         </is>
@@ -2891,7 +2885,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7310558449664855298</t>
         </is>
@@ -2942,7 +2936,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@huyenvytochigi/video/7309803395861269761</t>
         </is>
